--- a/rnaSample/rnaSample_hbrown_10.17.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.17.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -114,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -143,6 +143,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,19 +222,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,7 +266,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,7 +285,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -324,28 +334,30 @@
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="b">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1"/>
@@ -370,7 +382,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -379,19 +391,21 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -399,7 +413,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -408,19 +422,21 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -428,7 +444,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -437,19 +453,21 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -457,7 +475,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -466,19 +484,21 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -486,7 +506,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -495,19 +515,21 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="b">
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -515,7 +537,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -524,19 +546,21 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="b">
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -544,7 +568,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -553,19 +577,21 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="b">
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -573,7 +599,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -582,19 +608,21 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="b">
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -602,7 +630,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -611,19 +639,21 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="b">
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -631,7 +661,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -640,19 +670,21 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="b">
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -660,7 +692,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -669,19 +701,21 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="b">
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -689,7 +723,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -698,19 +732,21 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="b">
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -718,7 +754,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -727,19 +763,21 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="b">
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -747,7 +785,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -756,19 +794,21 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="b">
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -776,7 +816,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -785,19 +825,21 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="b">
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -805,7 +847,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -814,19 +856,21 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="b">
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -834,7 +878,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -843,19 +887,21 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="b">
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -863,7 +909,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -872,19 +918,21 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="b">
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -892,7 +940,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -901,19 +949,21 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="b">
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -921,7 +971,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -930,19 +980,21 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="b">
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -950,7 +1002,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -959,19 +1011,21 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6" t="b">
+      <c r="G23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -979,7 +1033,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -988,19 +1042,21 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="b">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1008,7 +1064,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1017,19 +1073,21 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="b">
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1037,7 +1095,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1046,19 +1104,21 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6" t="b">
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1066,7 +1126,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1075,19 +1135,21 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6" t="b">
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1157,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1104,19 +1166,21 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="b">
+      <c r="G28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1124,7 +1188,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1133,19 +1197,21 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6" t="b">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1153,7 +1219,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1162,19 +1228,21 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="b">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1250,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1191,19 +1259,21 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6" t="b">
+      <c r="G31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1211,7 +1281,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1220,19 +1290,21 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6" t="b">
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1240,7 +1312,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1249,19 +1321,21 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6" t="b">
+      <c r="G33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1269,7 +1343,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1278,19 +1352,21 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6" t="b">
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1374,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1307,19 +1383,21 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6" t="b">
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1327,7 +1405,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1336,19 +1414,21 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="b">
+      <c r="G36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1356,7 +1436,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1365,19 +1445,21 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6" t="b">
+      <c r="G37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_10.17.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.17.19.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">RIN</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13.19</t>
+    <t xml:space="preserve">09.13.19</t>
   </si>
   <si>
     <t xml:space="preserve">H.BROWN</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">4b 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">4b 2</t>
@@ -114,7 +114,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -145,12 +145,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -159,13 +153,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -213,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,23 +209,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -266,14 +249,15 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.61"/>
   </cols>
@@ -285,7 +269,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -334,29 +318,29 @@
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -382,7 +366,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -391,20 +375,20 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -413,7 +397,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -422,20 +406,20 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -444,7 +428,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -453,20 +437,20 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -475,7 +459,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -484,20 +468,20 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -506,7 +490,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -515,20 +499,20 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -537,7 +521,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -546,20 +530,20 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -568,7 +552,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -577,20 +561,20 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -599,7 +583,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -608,20 +592,20 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -630,7 +614,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -639,20 +623,20 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="n">
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -661,7 +645,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -670,20 +654,20 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="n">
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -692,7 +676,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -701,20 +685,20 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="n">
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -723,7 +707,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -732,20 +716,20 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="n">
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -754,7 +738,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -763,20 +747,20 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="n">
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -785,7 +769,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -794,20 +778,20 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="n">
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -816,7 +800,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -825,20 +809,20 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="7" t="n">
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -847,7 +831,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -856,20 +840,20 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="n">
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -878,7 +862,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -887,20 +871,20 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="n">
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -909,7 +893,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -918,20 +902,20 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="n">
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -940,7 +924,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -949,20 +933,20 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="n">
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -971,7 +955,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -980,20 +964,20 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="n">
+      <c r="G22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1002,7 +986,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1011,20 +995,20 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="n">
+      <c r="G23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1033,7 +1017,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1042,20 +1026,20 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="n">
+      <c r="G24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1064,7 +1048,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1073,20 +1057,20 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="n">
+      <c r="G25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1095,7 +1079,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1104,20 +1088,20 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="n">
+      <c r="G26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1126,7 +1110,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1135,20 +1119,20 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="n">
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1157,7 +1141,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1166,20 +1150,20 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="n">
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1188,7 +1172,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1197,20 +1181,20 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="n">
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1219,7 +1203,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1228,20 +1212,20 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="7" t="n">
+      <c r="G30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1250,7 +1234,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1259,20 +1243,20 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="7" t="n">
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1281,7 +1265,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1290,20 +1274,20 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="7" t="n">
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1312,7 +1296,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1321,20 +1305,20 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="7" t="n">
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1343,7 +1327,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1352,20 +1336,20 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="7" t="n">
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1374,7 +1358,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1383,20 +1367,20 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="7" t="n">
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1405,7 +1389,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1414,20 +1398,20 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="7" t="n">
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1436,7 +1420,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1445,31 +1429,25 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="7" t="n">
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G37" type="list">
-      <formula1>"DirectZol,Trizol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_hbrown_10.17.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.17.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3BFE3F-00DE-C540-8824-4A7C2967E19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4946FD-883F-6B4B-BAB7-711F1562BFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>TRIzol</t>
+  </si>
+  <si>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -135,6 +138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,9 +535,8 @@
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="1"/>
@@ -576,9 +579,8 @@
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="6"/>
     </row>
@@ -604,9 +606,8 @@
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -632,9 +633,8 @@
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -660,9 +660,8 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -688,9 +687,8 @@
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -716,9 +714,8 @@
       <c r="G8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -744,9 +741,8 @@
       <c r="G9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -772,9 +768,8 @@
       <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -800,9 +795,8 @@
       <c r="G11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -828,9 +822,8 @@
       <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H12" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -856,9 +849,8 @@
       <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -884,9 +876,8 @@
       <c r="G14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -912,9 +903,8 @@
       <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -940,9 +930,8 @@
       <c r="G16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -968,9 +957,8 @@
       <c r="G17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H17" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -996,9 +984,8 @@
       <c r="G18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -1024,9 +1011,8 @@
       <c r="G19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -1052,9 +1038,8 @@
       <c r="G20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -1080,9 +1065,8 @@
       <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H21" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -1108,9 +1092,8 @@
       <c r="G22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -1136,9 +1119,8 @@
       <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H23" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1164,9 +1146,8 @@
       <c r="G24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H24" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -1192,9 +1173,8 @@
       <c r="G25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -1220,9 +1200,8 @@
       <c r="G26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I26" s="6"/>
     </row>
@@ -1248,9 +1227,8 @@
       <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H27" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -1276,9 +1254,8 @@
       <c r="G28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H28" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="6"/>
     </row>
@@ -1304,9 +1281,8 @@
       <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H29" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I29" s="6"/>
     </row>
@@ -1332,9 +1308,8 @@
       <c r="G30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -1360,9 +1335,8 @@
       <c r="G31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="6"/>
     </row>
@@ -1388,9 +1362,8 @@
       <c r="G32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H32" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="6"/>
     </row>
@@ -1416,9 +1389,8 @@
       <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H33" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -1444,9 +1416,8 @@
       <c r="G34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="6"/>
     </row>
@@ -1472,9 +1443,8 @@
       <c r="G35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H35" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -1500,9 +1470,8 @@
       <c r="G36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I36" s="6"/>
     </row>
@@ -1528,11 +1497,58 @@
       <c r="G37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H37" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
